--- a/biology/Zoologie/Dendrolycus_elapoides/Dendrolycus_elapoides.xlsx
+++ b/biology/Zoologie/Dendrolycus_elapoides/Dendrolycus_elapoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendrolycus elapoides, unique représentant du genre Dendrolycus, est une espèce de serpents de la famille des Lamprophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrolycus elapoides, unique représentant du genre Dendrolycus, est une espèce de serpents de la famille des Lamprophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en République démocratique du Congo, en République du Congo et au Cameroun[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en République démocratique du Congo, en République du Congo et au Cameroun.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Dendrolycus elapoides angusticinctus (Laurent, 1952)
 Dendrolycus elapoides elapoides (Günther, 1874)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1874 : Description of some new or imperfectly known species of Reptiles from the Cameroon Mountains. Proceedings of the Zoological Society of London, vol. 1874, p. 442-445 (texte intégral).
 Laurent, 1956 : Contribution à l'herpetologie de la région des Grandes Lacs de l'Afrique centrale. Annales du Musée Royal du Congo Belge, vol. 48, p. 1-390.</t>
